--- a/database/files/prof/business-upload/disty_to_direct_upload_template.xlsx
+++ b/database/files/prof/business-upload/disty_to_direct_upload_template.xlsx
@@ -42,16 +42,16 @@
     </r>
   </si>
   <si>
-    <t>Group ID</t>
+    <t>*Group ID</t>
   </si>
   <si>
-    <t>Node Type</t>
+    <t>*Node Type</t>
   </si>
   <si>
-    <t>Sales Finance Hierarchy</t>
+    <t>*Sales Finance Hierarchy</t>
   </si>
   <si>
-    <t>Node Code</t>
+    <t>*Node Code</t>
   </si>
 </sst>
 </file>
